--- a/data/trans_bre/P25A_4_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_4_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-39,11%</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-42,24%</t>
+          <t>-3,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>-61,77%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-43,81%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,8</t>
+          <t>-4,98; 3,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,93</t>
+          <t>-8,57; -0,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 0,96</t>
+          <t>-5,69; 0,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 46,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-69,01; 367,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-79,64; 45,59</t>
+          <t>-3,84; 4,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-81,06; 51,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 123,1</t>
+          <t>-86,72; 15,65</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-81,01; 37,12</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-80,65; 369,78</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>-31,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>19,49%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>58,2%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,2</t>
+          <t>-2,99; 4,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,96</t>
+          <t>-1,24; 2,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,32</t>
+          <t>-1,34; 4,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 43,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,9; 374,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,04; 312,23</t>
+          <t>-0,85; 1,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,36; 292,05</t>
+          <t>-100,0; 382,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 167,03</t>
+          <t>-67,07; 392,68</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-68,97; 420,14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-76,53%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-24,18%</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>107,35%</t>
+          <t>-29,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>26,39%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>112,41%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-8,73%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,13</t>
+          <t>-1,27; 0,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 1,22</t>
+          <t>-1,14; 1,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,3</t>
+          <t>-0,34; 1,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,7 +1025,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-89,88; 311,53</t>
+          <t>-2,72; 1,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,14 +1035,34 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,95; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-83,33; 273,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,63%</t>
+          <t>-6,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>29,41%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33,07%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,27</t>
+          <t>-1,88; 1,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,84</t>
+          <t>-2,91; 2,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 33,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,02; 143,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,1; 65,14</t>
+          <t>-1,87; 3,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,09; 85,61</t>
+          <t>-85,3; 282,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 87,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-84,17; 550,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-16,82%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-16,81%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 1,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 0,8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 1,57</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 1,48</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-67,25; 110,45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-58,52; 62,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-53,48; 132,32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-39,8; 138,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_4_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_4_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,79</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-3,84%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-61,77%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-43,81%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-1,17%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.02351929209602789</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.821107147940545</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-2.162247716489268</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>-0.1602193292769991</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.01087558192459476</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.6331818337999757</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.4656430418664085</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>-0.04715488046935695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 3,6</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,57; -0,33</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; 0,9</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 4,11</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-86,72; 15,65</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-81,01; 37,12</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-80,65; 369,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.329232821081294</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.692104085607035</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.453549447826819</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-4.042110929327007</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.8714065656625348</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.8235591560155086</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>-0.8117478040317848</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.647220729056004</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.4365097692810467</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.6364690345515709</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>3.944222965889562</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>0.1096151198156759</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.2836315921310599</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>3.372295820074223</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-31,76%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>19,49%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>33,93%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>58,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; 4,16</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 2,91</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 4,17</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 1,96</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 382,26</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-67,07; 392,68</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-68,97; 420,14</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.160379055596011</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.06440382916443679</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2917923750978206</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>0.3759870762026709</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.4891316089725651</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.04026106445358946</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1694778345174316</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>0.5161972068019642</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-29,1%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>26,39%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>112,41%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-8,73%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.290919448011974</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.629808507902968</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.696012684174025</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-0.9093830036648937</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.731088817373119</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.7284795621889235</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 0,56</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 1,36</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 1,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 1,91</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-86,95; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-83,33; 273,56</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.998538260094337</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.260803190478739</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.391990333665897</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>1.864248013245466</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.480445963683731</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.619278677678074</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.586700648354434</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +875,224 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-6,35%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>29,41%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>33,07%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.08028820021104793</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.2550129973308559</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3561039925627535</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.3580684572963403</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.2320764901410761</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3090503036127211</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.058022459420727</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>-0.1767104663240743</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 1,44</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,91; 2,57</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 3,02</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-85,3; 282,08</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-84,17; 550,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.104697389102847</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.154806299278788</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3682109026587184</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-2.862161051347987</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.8407884977727718</v>
+      </c>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.8482338501978441</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.5417008140935127</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.494532763259119</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.400937454770636</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>1.584794439329138</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>2.433835827249612</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-16,82%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-16,81%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-2,28%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>19,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 1,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 0,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 1,57</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 1,48</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-67,25; 110,45</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-58,52; 62,57</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-53,48; 132,32</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-39,8; 138,13</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.5344058843899969</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.6501395627426715</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1963389024520246</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>0.1361185392669606</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.334138212655306</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2894041390283653</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1032145835523044</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>0.08051972761357272</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.853282376530053</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.989140258703765</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.486474810822631</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-1.206704428441088</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7916991779258638</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6474087437573484</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.5835436395204063</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>-0.5382563643597295</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.9965201678072988</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6174091474092359</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.145617694578091</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>1.491217768372725</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.456704483087643</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4680166655366492</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.9931680419775576</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>1.435744884725533</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
